--- a/DatosMercado.xlsx
+++ b/DatosMercado.xlsx
@@ -20,7 +20,7 @@
     <t>last-update</t>
   </si>
   <si>
-    <t>2024-02-25T20:46:13.000+01:00</t>
+    <t>2024-02-28T20:46:24.000+01:00</t>
   </si>
   <si>
     <t>Datetime</t>
@@ -107,7 +107,7 @@
     <t>Precio mercado spot (€/MWh)</t>
   </si>
   <si>
-    <t>2024-02-25T14:26:48.000+01:00</t>
+    <t>2024-02-28T14:29:57.000+01:00</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>50.65</v>
+        <v>62.16</v>
       </c>
       <c r="C6">
-        <v>0.9405756731662024</v>
+        <v>0.8090589613432253</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>50.82</v>
+        <v>57.49</v>
       </c>
       <c r="C7">
-        <v>0.9407626804887078</v>
+        <v>0.8518299007260334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>47.78</v>
+        <v>57.52</v>
       </c>
       <c r="C8">
-        <v>0.9979114452798663</v>
+        <v>0.89875</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>48.13</v>
+        <v>56.32</v>
       </c>
       <c r="C9">
-        <v>0.9979266017001865</v>
+        <v>0.9037227214377407</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>51.22</v>
+        <v>56.34</v>
       </c>
       <c r="C10">
-        <v>0.9980514419329696</v>
+        <v>0.908416639793615</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>53.25</v>
+        <v>55.91</v>
       </c>
       <c r="C11">
-        <v>0.9466666666666667</v>
+        <v>0.905571752510528</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>50.63</v>
+        <v>51.66</v>
       </c>
       <c r="C12">
-        <v>0.9405535946498235</v>
+        <v>0.902200488997555</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>57.45</v>
+        <v>54.94</v>
       </c>
       <c r="C13">
-        <v>0.8363662833017907</v>
+        <v>0.837372351775644</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>81.65</v>
+        <v>80.5</v>
       </c>
       <c r="C14">
-        <v>0.8860553445469344</v>
+        <v>0.8895027624309392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>75.98</v>
+        <v>75.44</v>
       </c>
       <c r="C15">
-        <v>0.9577713349300392</v>
+        <v>0.9274649618883697</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>127.43</v>
+        <v>120.98</v>
       </c>
       <c r="C16">
-        <v>0.975503330016076</v>
+        <v>0.9742309550652278</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>127.36</v>
+        <v>117.11</v>
       </c>
       <c r="C17">
-        <v>0.9754901960784313</v>
+        <v>0.9991468304752155</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>124.34</v>
+        <v>116.9</v>
       </c>
       <c r="C18">
-        <v>0.9965536587320669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,10 +683,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>124.26</v>
+        <v>116.45</v>
       </c>
       <c r="C19">
-        <v>0.9965514475900232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,10 +694,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>73.28</v>
+        <v>66.03</v>
       </c>
       <c r="C20">
-        <v>0.9998635557374812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>74.01</v>
+        <v>66.02</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>74.34</v>
+        <v>67.78</v>
       </c>
       <c r="C22">
-        <v>0.9973168768446471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>75.75</v>
+        <v>67.46</v>
       </c>
       <c r="C23">
-        <v>0.9594680177327423</v>
+        <v>0.9998517859789535</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>123.06</v>
+        <v>120.34</v>
       </c>
       <c r="C24">
-        <v>0.9745782846281777</v>
+        <v>0.9734670765248341</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>130.04</v>
+        <v>120.17</v>
       </c>
       <c r="C25">
-        <v>0.9285918309054556</v>
+        <v>0.9600543261164816</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>130.21</v>
+        <v>122.77</v>
       </c>
       <c r="C26">
-        <v>0.9172302056917442</v>
+        <v>0.939039314670338</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +771,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>128.52</v>
+        <v>121</v>
       </c>
       <c r="C27">
-        <v>0.9278082587352007</v>
+        <v>0.9502866567187623</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +782,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>73.28</v>
+        <v>70.16</v>
       </c>
       <c r="C28">
-        <v>0.9397281354193383</v>
+        <v>0.9334752527940394</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,10 +793,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>72.33</v>
+        <v>69.22</v>
       </c>
       <c r="C29">
-        <v>0.9563665212217375</v>
+        <v>0.9531809418892866</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.2</v>
+        <v>14.67</v>
       </c>
       <c r="C6">
-        <v>0.059424326833797586</v>
+        <v>0.1909410386567747</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.059237319511292116</v>
+        <v>0.1481700992739665</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>6.48</v>
       </c>
       <c r="C8">
-        <v>0.0020885547201336674</v>
+        <v>0.10125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.002073398299813394</v>
+        <v>0.0962772785622593</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>5.68</v>
       </c>
       <c r="C10">
-        <v>0.0019485580670303977</v>
+        <v>0.09158336020638502</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5.83</v>
       </c>
       <c r="C11">
-        <v>0.05333333333333334</v>
+        <v>0.09442824748947198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="C12">
-        <v>0.05944640535017648</v>
+        <v>0.09779951100244498</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11.24</v>
+        <v>10.67</v>
       </c>
       <c r="C13">
-        <v>0.16363371669820936</v>
+        <v>0.16262764822435605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.11394465545306565</v>
+        <v>0.11049723756906077</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3.35</v>
+        <v>5.9</v>
       </c>
       <c r="C15">
-        <v>0.042228665069960925</v>
+        <v>0.0725350381116302</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>3.2</v>
       </c>
       <c r="C16">
-        <v>0.024496669983924062</v>
+        <v>0.025769044934772105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +963,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
-        <v>0.024509803921568627</v>
+        <v>0.0008531695247845748</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0034463412679329964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.003448552409976742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.00013644426251876107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.002683123155352831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3.2</v>
+        <v>0.01</v>
       </c>
       <c r="C23">
-        <v>0.04053198226725776</v>
+        <v>0.000148214021046391</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,10 +1040,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="C24">
-        <v>0.025421715371822286</v>
+        <v>0.026532923475165827</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.07140816909454442</v>
+        <v>0.03994567388351841</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11.75</v>
+        <v>7.97</v>
       </c>
       <c r="C26">
-        <v>0.08276979430825585</v>
+        <v>0.060960685329661916</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,10 +1073,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>6.33</v>
       </c>
       <c r="C27">
-        <v>0.0721917412647993</v>
+        <v>0.04971334328123773</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1084,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>0.06027186458066171</v>
+        <v>0.06652474720596062</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C29">
-        <v>0.0436334787782626</v>
+        <v>0.046819058110713296</v>
       </c>
     </row>
   </sheetData>
